--- a/biology/Histoire de la zoologie et de la botanique/Rolf_Singer/Rolf_Singer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rolf_Singer/Rolf_Singer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rolf Singer, né le 23 juin 1906 à Schliersee (Allemagne) et mort le 18 janvier 1994 à Chicago (États-Unis), est un mycologue allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils du peintre Albert Singer et d’Eva née Neiicke. Il obtient son doctorat à l’université de Vienne en 1931. Il se marie avec Martha Kupfer le 4 juillet 1934. En 1934-1935, il est professeur à l’université autonome de Barcelone puis travaille au jardin botanique de Léningrad de 1935 à 1940, faisant une expédition en 1937 dans l'Altaï avec Lioubov Vassilieva. De 1941 à 1948, il est assistant conservateur à l’herbier Farlow d’Harvard. De 1948 à 1961, il dirige le département de botanique de l’université nationale de Tucumán en Argentine. De 1961 à 1964, il est professeur à l’université de Buenos Aires et, à partir de 1968, professeur invité à l’université de l'Illinois à Chicago. Il s’intéresse particulièrement à l’écologie et l’évolution des champignons.
 Singer est notamment l’auteur de :
